--- a/atteched table for pandas.xlsx
+++ b/atteched table for pandas.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FanGitHub\pf-pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C22373-F8DB-4B83-9E87-42C9D07FD09A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5F16A5-F0ED-4339-A7D8-8EA8BABE308D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="3" xr2:uid="{E282014C-E839-4356-B40F-BA860BF4FF28}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="4" xr2:uid="{E282014C-E839-4356-B40F-BA860BF4FF28}"/>
   </bookViews>
   <sheets>
     <sheet name="Select" sheetId="1" r:id="rId1"/>
     <sheet name="Indexing-Selecting" sheetId="2" r:id="rId2"/>
     <sheet name="R-Datasets" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Descriptive-statistics" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4640" uniqueCount="2189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4558" uniqueCount="2228">
   <si>
     <t>Operation</t>
   </si>
@@ -6765,12 +6766,129 @@
     <t>Applying with a Panel</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Number of non-null observations</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>Sum of values</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Mean of values</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>Mean absolute deviation</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>Arithmetic median of values</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>abs</t>
+  </si>
+  <si>
+    <t>Absolute Value</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>Product of values</t>
+  </si>
+  <si>
+    <t>Bessel-corrected sample standard deviation</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>Unbiased variance</t>
+  </si>
+  <si>
+    <t>Standard error of the mean</t>
+  </si>
+  <si>
+    <t>skew</t>
+  </si>
+  <si>
+    <t>Sample skewness (3rd moment)</t>
+  </si>
+  <si>
+    <t>kurt</t>
+  </si>
+  <si>
+    <t>Sample kurtosis (4th moment)</t>
+  </si>
+  <si>
+    <t>quantile</t>
+  </si>
+  <si>
+    <t>Sample quantile (value at %)</t>
+  </si>
+  <si>
+    <t>cumsum</t>
+  </si>
+  <si>
+    <t>Cumulative sum</t>
+  </si>
+  <si>
+    <t>cumprod</t>
+  </si>
+  <si>
+    <t>Cumulative product</t>
+  </si>
+  <si>
+    <t>cummax</t>
+  </si>
+  <si>
+    <t>Cumulative maximum</t>
+  </si>
+  <si>
+    <t>cummin</t>
+  </si>
+  <si>
+    <t>Cumulative minimum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6857,6 +6975,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3E4349"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3E4349"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3E4349"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -6928,7 +7065,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6971,9 +7108,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -6985,6 +7119,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7780,10 +7932,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="17.399999999999999">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
@@ -22434,10 +22586,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9391FA-EFD8-475C-B633-071CD53D2DB7}">
-  <dimension ref="B2:B32"/>
+  <dimension ref="A2:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -22445,159 +22597,366 @@
     <col min="2" max="2" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="17.399999999999999">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:2" ht="17.399999999999999">
+      <c r="B2" s="14" t="s">
         <v>2158</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>2159</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>2160</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>2161</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>2162</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="1:2">
+      <c r="B7" s="16" t="s">
         <v>2163</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="17" t="s">
+    <row r="8" spans="1:2">
+      <c r="B8" s="16" t="s">
         <v>2164</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="17" t="s">
+    <row r="9" spans="1:2">
+      <c r="B9" s="16" t="s">
         <v>2165</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="17" t="s">
+    <row r="10" spans="1:2">
+      <c r="B10" s="16" t="s">
         <v>2166</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="17" t="s">
+    <row r="11" spans="1:2">
+      <c r="B11" s="16" t="s">
         <v>2167</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="1:2">
+      <c r="B12" s="16" t="s">
         <v>2168</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="17" t="s">
+    <row r="13" spans="1:2">
+      <c r="B13" s="16" t="s">
         <v>2169</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="17" t="s">
+    <row r="14" spans="1:2">
+      <c r="B14" s="16" t="s">
         <v>2170</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="16" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>2171</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="17" t="s">
+    <row r="16" spans="1:2">
+      <c r="B16" s="16" t="s">
         <v>2172</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="17" t="s">
+    <row r="17" spans="1:2">
+      <c r="B17" s="16" t="s">
         <v>2173</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" s="16" t="s">
         <v>2174</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" s="16" t="s">
         <v>2175</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="16" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>2176</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="1:2">
+      <c r="B21" s="16" t="s">
         <v>2177</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="1:2">
+      <c r="B22" s="16" t="s">
         <v>2178</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="17" t="s">
+    <row r="23" spans="1:2">
+      <c r="B23" s="16" t="s">
         <v>2185</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="18" t="s">
+    <row r="24" spans="1:2">
+      <c r="B24" s="17" t="s">
         <v>2179</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="18" t="s">
+    <row r="25" spans="1:2">
+      <c r="B25" s="17" t="s">
         <v>2180</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="18" t="s">
+    <row r="26" spans="1:2">
+      <c r="B26" s="17" t="s">
         <v>2181</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="18" t="s">
+    <row r="27" spans="1:2">
+      <c r="B27" s="17" t="s">
         <v>2182</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="17" t="s">
+    <row r="28" spans="1:2">
+      <c r="B28" s="16" t="s">
         <v>2186</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="18" t="s">
+    <row r="29" spans="1:2">
+      <c r="B29" s="17" t="s">
         <v>2183</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="18" t="s">
+    <row r="30" spans="1:2">
+      <c r="B30" s="17" t="s">
         <v>2184</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="17" t="s">
+    <row r="31" spans="1:2">
+      <c r="B31" s="16" t="s">
         <v>2187</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="17" t="s">
+    <row r="32" spans="1:2">
+      <c r="B32" s="16" t="s">
         <v>2188</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCA563B-0932-4630-9A90-F3CA0562DE82}">
+  <dimension ref="B2:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="37.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="15.6">
+      <c r="B2" s="23" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="19" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="21" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="19" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="21" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="19" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="21" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="19" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="21" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="19" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="21" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="27.6">
+      <c r="B13" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="21" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="19" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="21" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="19" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="21" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="19" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="21" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="19" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="21" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>2227</v>
       </c>
     </row>
   </sheetData>

--- a/atteched table for pandas.xlsx
+++ b/atteched table for pandas.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FanGitHub\pf-pandas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\FanGitHub\pf-pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5F16A5-F0ED-4339-A7D8-8EA8BABE308D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9E5529-8E73-41AB-ACED-F4DDDA857FF4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="4" xr2:uid="{E282014C-E839-4356-B40F-BA860BF4FF28}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="3" xr2:uid="{E282014C-E839-4356-B40F-BA860BF4FF28}"/>
   </bookViews>
   <sheets>
     <sheet name="Select" sheetId="1" r:id="rId1"/>
     <sheet name="Indexing-Selecting" sheetId="2" r:id="rId2"/>
     <sheet name="R-Datasets" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Basic-Functionality" sheetId="4" r:id="rId4"/>
     <sheet name="Descriptive-statistics" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4558" uniqueCount="2228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4643" uniqueCount="2307">
   <si>
     <t>Operation</t>
   </si>
@@ -6670,9 +6670,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Essential Basic Functionality</t>
-  </si>
-  <si>
     <t>Head and Tail</t>
   </si>
   <si>
@@ -6882,6 +6879,275 @@
   </si>
   <si>
     <t>Cumulative minimum</t>
+  </si>
+  <si>
+    <t>首尾</t>
+  </si>
+  <si>
+    <t>属性和原始ndarray（s）</t>
+  </si>
+  <si>
+    <t>加速运营</t>
+  </si>
+  <si>
+    <t>灵活的二进制操作</t>
+  </si>
+  <si>
+    <t>匹配/广播行为</t>
+  </si>
+  <si>
+    <t>缺少填充值的数据/操作</t>
+  </si>
+  <si>
+    <t>灵活的比较</t>
+  </si>
+  <si>
+    <t>布尔缩减</t>
+  </si>
+  <si>
+    <t>比较对象是否相同</t>
+  </si>
+  <si>
+    <t>比较类似数组的对象</t>
+  </si>
+  <si>
+    <t>组合重叠数据集</t>
+  </si>
+  <si>
+    <t>通用DataFrame组合</t>
+  </si>
+  <si>
+    <t>描述性统计</t>
+  </si>
+  <si>
+    <t>总结数据：描述</t>
+  </si>
+  <si>
+    <t>最小/最大值索引</t>
+  </si>
+  <si>
+    <t>值计数（直方图）/模式</t>
+  </si>
+  <si>
+    <t>离散化和量化</t>
+  </si>
+  <si>
+    <t>表格函数应用</t>
+  </si>
+  <si>
+    <t>行或列式函数应用程序</t>
+  </si>
+  <si>
+    <t>聚合API</t>
+  </si>
+  <si>
+    <t>与多个功能聚合</t>
+  </si>
+  <si>
+    <t>与词典汇总</t>
+  </si>
+  <si>
+    <t>混合型Dtypes</t>
+  </si>
+  <si>
+    <t>自定义描述</t>
+  </si>
+  <si>
+    <t>转换API</t>
+  </si>
+  <si>
+    <t>使用多种功能进行转换</t>
+  </si>
+  <si>
+    <t>用词典转换</t>
+  </si>
+  <si>
+    <t>应用元素函数</t>
+  </si>
+  <si>
+    <t>使用面板</t>
+  </si>
+  <si>
+    <t>重新索引和更改标签</t>
+  </si>
+  <si>
+    <t>重新索引以与另一个对象对齐</t>
+  </si>
+  <si>
+    <t>在重新索引时填充</t>
+  </si>
+  <si>
+    <t>重新索引时填充的限制</t>
+  </si>
+  <si>
+    <t>从轴上删除标签</t>
+  </si>
+  <si>
+    <t>重命名/映射标签</t>
+  </si>
+  <si>
+    <t>迭代</t>
+  </si>
+  <si>
+    <t>iteritems</t>
+  </si>
+  <si>
+    <t>iterrows</t>
+  </si>
+  <si>
+    <t>itertuples</t>
+  </si>
+  <si>
+    <t>.dt访问者</t>
+  </si>
+  <si>
+    <t>矢量化的字符串方法</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>按索引</t>
+  </si>
+  <si>
+    <t>按价值观</t>
+  </si>
+  <si>
+    <t>searchsorted</t>
+  </si>
+  <si>
+    <t>最小/最大值</t>
+  </si>
+  <si>
+    <t>按多索引列排序</t>
+  </si>
+  <si>
+    <t>仿形</t>
+  </si>
+  <si>
+    <t>dtypes</t>
+  </si>
+  <si>
+    <t>默认</t>
+  </si>
+  <si>
+    <t>上溯造型</t>
+  </si>
+  <si>
+    <t>astype</t>
+  </si>
+  <si>
+    <t>对象转换</t>
+  </si>
+  <si>
+    <t>陷阱</t>
+  </si>
+  <si>
+    <r>
+      <t>将对象彼此对齐 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>align</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>选择基于的列 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dtype</t>
+    </r>
+  </si>
+  <si>
+    <t>Reindexing and altering labels</t>
+  </si>
+  <si>
+    <t>Reindexing to align with another object</t>
+  </si>
+  <si>
+    <t>Aligning objects with each other with align</t>
+  </si>
+  <si>
+    <t>Filling while reindexing</t>
+  </si>
+  <si>
+    <t>Limits on filling while reindexing</t>
+  </si>
+  <si>
+    <t>Dropping labels from an axis</t>
+  </si>
+  <si>
+    <t>Renaming / mapping labels</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>.dt accessor</t>
+  </si>
+  <si>
+    <t>Vectorized string methods</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>By Index</t>
+  </si>
+  <si>
+    <t>By Values</t>
+  </si>
+  <si>
+    <t>smallest / largest values</t>
+  </si>
+  <si>
+    <t>Sorting by a multi-index column</t>
+  </si>
+  <si>
+    <t>Copying</t>
+  </si>
+  <si>
+    <t>defaults</t>
+  </si>
+  <si>
+    <t>upcasting</t>
+  </si>
+  <si>
+    <t>object conversion</t>
+  </si>
+  <si>
+    <t>gotchas</t>
+  </si>
+  <si>
+    <t>Selecting columns based on dtype</t>
+  </si>
+  <si>
+    <t>Essential Basic Functionality</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要的基本功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数应用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6995,7 +7261,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7023,6 +7289,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7065,7 +7337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7120,9 +7392,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7137,6 +7406,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7932,10 +8210,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="17.399999999999999">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="25"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
@@ -22586,188 +22864,524 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9391FA-EFD8-475C-B633-071CD53D2DB7}">
-  <dimension ref="A2:B32"/>
+  <dimension ref="A2:D59"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="17.399999999999999">
+    <row r="2" spans="1:4" ht="17.399999999999999">
       <c r="B2" s="14" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>2158</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="D3" s="15" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="23">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>2159</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="D4" s="15" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="23">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>2160</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="15" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="23">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>2161</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="D6" s="15" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="16" t="s">
         <v>2162</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="16" t="s">
+      <c r="D7" s="16" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="16" t="s">
         <v>2163</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="16" t="s">
+      <c r="D8" s="16" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="16" t="s">
         <v>2164</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="16" t="s">
+      <c r="D9" s="16" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="16" t="s">
         <v>2165</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="16" t="s">
+      <c r="D10" s="16" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="16" t="s">
         <v>2166</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="16" t="s">
+      <c r="D11" s="16" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="16" t="s">
         <v>2167</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="16" t="s">
+      <c r="D12" s="16" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="16" t="s">
         <v>2168</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="16" t="s">
+      <c r="D13" s="16" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="16" t="s">
         <v>2169</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="16" t="s">
+      <c r="D14" s="16" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="23">
+        <v>5</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>2170</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" s="15" t="s">
+      <c r="D15" s="15" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="16" t="s">
         <v>2171</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="16" t="s">
+      <c r="D16" s="16" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" s="16" t="s">
         <v>2172</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="B17" s="16" t="s">
+      <c r="D17" s="16" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" s="16" t="s">
         <v>2173</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" s="16" t="s">
+      <c r="D18" s="16" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="16" t="s">
         <v>2174</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" s="16" t="s">
+      <c r="D19" s="16" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="23">
+        <v>6</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>2175</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>6</v>
-      </c>
-      <c r="B20" s="15" t="s">
+      <c r="D20" s="15" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" s="16" t="s">
         <v>2176</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" s="16" t="s">
+      <c r="D21" s="16" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="16" t="s">
         <v>2177</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" s="16" t="s">
+      <c r="D22" s="16" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="16" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="17" t="s">
         <v>2178</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="16" t="s">
+      <c r="D24" s="17" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" s="17" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" s="17" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="17" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="16" t="s">
         <v>2185</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="17" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" s="17" t="s">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="B26" s="17" t="s">
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" s="17" t="s">
+      <c r="D28" s="16" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="17" t="s">
         <v>2182</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="B28" s="16" t="s">
+      <c r="D29" s="17" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="17" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="16" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="B29" s="17" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="B30" s="17" t="s">
-        <v>2184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" s="16" t="s">
+      <c r="D31" s="16" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="24" t="s">
         <v>2187</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" s="16" t="s">
-        <v>2188</v>
+      <c r="D32" s="16" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="23">
+        <v>7</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="B34" s="16" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" s="16" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" s="16" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" s="16" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" s="16" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" s="16" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="23">
+        <v>8</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" s="16" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" s="16" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" s="16" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="23">
+        <v>9</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="23">
+        <v>10</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="23">
+        <v>11</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" s="16" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" s="16" t="s">
+        <v>2295</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="B49" s="16" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="B50" s="16" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" s="16" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="23">
+        <v>12</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="23">
+        <v>13</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" s="16" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" s="16" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="B56" s="16" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" s="16" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" s="16" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="23">
+        <v>14</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -22781,7 +23395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCA563B-0932-4630-9A90-F3CA0562DE82}">
   <dimension ref="B2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -22792,171 +23406,171 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="15.6">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>2189</v>
       </c>
-      <c r="C2" s="23" t="s">
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="18" t="s">
         <v>2190</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="19" t="s">
         <v>2191</v>
       </c>
-      <c r="C3" s="20" t="s">
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="20" t="s">
         <v>2192</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="21" t="s">
+      <c r="C4" s="21" t="s">
         <v>2193</v>
       </c>
-      <c r="C4" s="22" t="s">
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="18" t="s">
         <v>2194</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="19" t="s">
+      <c r="C5" s="19" t="s">
         <v>2195</v>
       </c>
-      <c r="C5" s="20" t="s">
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="20" t="s">
         <v>2196</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="21" t="s">
+      <c r="C6" s="21" t="s">
         <v>2197</v>
       </c>
-      <c r="C6" s="22" t="s">
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="18" t="s">
         <v>2198</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="19" t="s">
+      <c r="C7" s="19" t="s">
         <v>2199</v>
       </c>
-      <c r="C7" s="20" t="s">
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="20" t="s">
         <v>2200</v>
       </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="21" t="s">
+      <c r="C8" s="21" t="s">
         <v>2201</v>
       </c>
-      <c r="C8" s="22" t="s">
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="18" t="s">
         <v>2202</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>2203</v>
       </c>
-      <c r="C9" s="20" t="s">
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="20" t="s">
         <v>2204</v>
       </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="21" t="s">
+      <c r="C10" s="21" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="18" t="s">
         <v>2205</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="19" t="s">
+      <c r="C11" s="19" t="s">
         <v>2206</v>
       </c>
-      <c r="C11" s="20" t="s">
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="20" t="s">
         <v>2207</v>
       </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="21" t="s">
+      <c r="C12" s="21" t="s">
         <v>2208</v>
       </c>
-      <c r="C12" s="22" t="s">
+    </row>
+    <row r="13" spans="2:3" ht="27.6">
+      <c r="B13" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>2209</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="27.6">
-      <c r="B13" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="C13" s="20" t="s">
+    <row r="14" spans="2:3">
+      <c r="B14" s="20" t="s">
         <v>2210</v>
       </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="21" t="s">
+      <c r="C14" s="21" t="s">
         <v>2211</v>
       </c>
-      <c r="C14" s="22" t="s">
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="18" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>2212</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="19" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C15" s="20" t="s">
+    <row r="16" spans="2:3">
+      <c r="B16" s="20" t="s">
         <v>2213</v>
       </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="21" t="s">
+      <c r="C16" s="21" t="s">
         <v>2214</v>
       </c>
-      <c r="C16" s="22" t="s">
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="18" t="s">
         <v>2215</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>2216</v>
       </c>
-      <c r="C17" s="20" t="s">
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="20" t="s">
         <v>2217</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="21" t="s">
+      <c r="C18" s="21" t="s">
         <v>2218</v>
       </c>
-      <c r="C18" s="22" t="s">
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="18" t="s">
         <v>2219</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>2220</v>
       </c>
-      <c r="C19" s="20" t="s">
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="20" t="s">
         <v>2221</v>
       </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="21" t="s">
+      <c r="C20" s="21" t="s">
         <v>2222</v>
       </c>
-      <c r="C20" s="22" t="s">
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="18" t="s">
         <v>2223</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>2224</v>
       </c>
-      <c r="C21" s="20" t="s">
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="20" t="s">
         <v>2225</v>
       </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="21" t="s">
+      <c r="C22" s="21" t="s">
         <v>2226</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>2227</v>
       </c>
     </row>
   </sheetData>

--- a/atteched table for pandas.xlsx
+++ b/atteched table for pandas.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\FanGitHub\pf-pandas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FanGitHub\pf-pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9E5529-8E73-41AB-ACED-F4DDDA857FF4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534D9C2E-E3C0-440D-9DB4-08A1D154BD49}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="3" xr2:uid="{E282014C-E839-4356-B40F-BA860BF4FF28}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1" xr2:uid="{E282014C-E839-4356-B40F-BA860BF4FF28}"/>
   </bookViews>
   <sheets>
     <sheet name="Select" sheetId="1" r:id="rId1"/>
     <sheet name="Indexing-Selecting" sheetId="2" r:id="rId2"/>
-    <sheet name="R-Datasets" sheetId="3" r:id="rId3"/>
-    <sheet name="Basic-Functionality" sheetId="4" r:id="rId4"/>
-    <sheet name="Descriptive-statistics" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="R-Datasets" sheetId="3" r:id="rId4"/>
+    <sheet name="Basic-Functionality" sheetId="4" r:id="rId5"/>
+    <sheet name="Descriptive-statistics" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4643" uniqueCount="2307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4651" uniqueCount="2313">
   <si>
     <t>Operation</t>
   </si>
@@ -7149,12 +7150,30 @@
     <t>函数应用</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>Object Type</t>
+  </si>
+  <si>
+    <t>Indexers</t>
+  </si>
+  <si>
+    <t>s.loc[indexer]</t>
+  </si>
+  <si>
+    <t>df.loc[row_indexer,column_indexer]</t>
+  </si>
+  <si>
+    <t>Panel</t>
+  </si>
+  <si>
+    <t>p.loc[item_indexer,major_indexer,minor_indexer]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7260,6 +7279,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -7337,7 +7375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7413,8 +7451,32 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7868,322 +7930,432 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ADB7EB-1C50-4C0B-A67A-7A3F98E95E64}">
-  <dimension ref="B3:C40"/>
+  <dimension ref="A3:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="33" customWidth="1"/>
     <col min="2" max="2" width="55.5546875" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="26.4" customHeight="1">
+    <row r="3" spans="1:6" ht="26.4" customHeight="1">
       <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="15.6">
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6">
+      <c r="A4" s="33">
+        <v>1</v>
+      </c>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="15.6">
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6">
+      <c r="A5" s="33">
+        <v>2</v>
+      </c>
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="15.6">
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6">
+      <c r="A6" s="33">
+        <v>3</v>
+      </c>
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="15.6">
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6">
+      <c r="A7" s="33">
+        <v>4</v>
+      </c>
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" ht="15.6">
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6">
+      <c r="A8" s="33">
+        <v>5</v>
+      </c>
       <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="15.6">
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.6">
+      <c r="A9" s="33">
+        <v>6</v>
+      </c>
       <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" ht="15.6">
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6">
+      <c r="A10" s="33">
+        <v>7</v>
+      </c>
       <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" ht="15.6">
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6">
+      <c r="A11" s="33">
+        <v>8</v>
+      </c>
       <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" ht="15.6">
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6">
+      <c r="A12" s="33">
+        <v>9</v>
+      </c>
       <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" ht="15.6">
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6">
+      <c r="A13" s="33">
+        <v>10</v>
+      </c>
       <c r="B13" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" ht="15.6">
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6">
+      <c r="A14" s="33">
+        <v>11</v>
+      </c>
       <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" ht="15.6">
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6">
+      <c r="A15" s="33">
+        <v>12</v>
+      </c>
       <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" ht="15.6">
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6">
+      <c r="A16" s="33">
+        <v>13</v>
+      </c>
       <c r="B16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="15.6">
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6">
+      <c r="A17" s="33">
+        <v>14</v>
+      </c>
       <c r="B17" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.6">
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6">
+      <c r="A18" s="33">
+        <v>15</v>
+      </c>
       <c r="B18" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="B19" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="2:3">
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="B20" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="B21" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="2:3">
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="B22" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="2:3">
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="B23" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
+      <c r="F23" s="25"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="B24" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="B25" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" ht="15.6">
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.6">
+      <c r="A26" s="33">
+        <v>16</v>
+      </c>
       <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" ht="15.6">
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.6">
+      <c r="A27" s="33">
+        <v>17</v>
+      </c>
       <c r="B27" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" ht="15.6">
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6">
+      <c r="A28" s="33">
+        <v>18</v>
+      </c>
       <c r="B28" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" ht="15.6">
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6">
+      <c r="A29" s="33">
+        <v>19</v>
+      </c>
       <c r="B29" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" ht="15.6">
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6">
+      <c r="A30" s="33">
+        <v>20</v>
+      </c>
       <c r="B30" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="2:3">
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="B31" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="2:3">
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="B32" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="2:3">
+      <c r="F32" s="25"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="B33" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="2:3">
+      <c r="F33" s="25"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="33">
+        <v>21</v>
+      </c>
       <c r="B34" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="2:3">
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="B35" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="2:3">
+      <c r="F35" s="25"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="B36" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="2:3">
+      <c r="F36" s="25"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="B37" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="2:3">
+      <c r="F37" s="25"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="33">
+        <v>22</v>
+      </c>
       <c r="B38" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="2:3">
+      <c r="F38" s="25"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="33">
+        <v>23</v>
+      </c>
       <c r="B39" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="40" spans="2:3">
+      <c r="F39" s="25"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="33">
+        <v>24</v>
+      </c>
       <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>75</v>
       </c>
+      <c r="F40" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -8193,6 +8365,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F5EC4C-F231-4655-8CB9-F22BDD0BBC2B}">
+  <dimension ref="B3:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" s="26"/>
+    </row>
+    <row r="4" spans="2:3" ht="14.4" thickBot="1">
+      <c r="B4" s="27" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="14.4" thickBot="1">
+      <c r="B5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="14.4" thickBot="1">
+      <c r="B6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="14.4" thickBot="1">
+      <c r="B7" s="28" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B7AB45-5FD8-476E-8D0D-C684100A9DCC}">
   <dimension ref="B3:G735"/>
   <sheetViews>
@@ -8210,10 +8437,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="17.399999999999999">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="32"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
@@ -22862,11 +23089,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9391FA-EFD8-475C-B633-071CD53D2DB7}">
   <dimension ref="A2:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -23391,7 +23618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCA563B-0932-4630-9A90-F3CA0562DE82}">
   <dimension ref="B2:C22"/>
   <sheetViews>
@@ -23576,5 +23803,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>